--- a/src/components/documentation/downloadable_files/translation__en.xlsx
+++ b/src/components/documentation/downloadable_files/translation__en.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spectre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\econsultationui-dev\src\components\documentation\downloadable_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69664A43-546A-432E-BA6B-B1B8582F40CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847A36D-8D0B-4EF5-B19D-B505B9850FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,9 +712,6 @@
     <t>show_form</t>
   </si>
   <si>
-    <t>Show Form"</t>
-  </si>
-  <si>
     <t>user_profile</t>
   </si>
   <si>
@@ -886,9 +883,6 @@
     <t>deleting_sector_info</t>
   </si>
   <si>
-    <t>Deleting Sector Info"</t>
-  </si>
-  <si>
     <t>you_are_deleting_sector</t>
   </si>
   <si>
@@ -1018,21 +1012,9 @@
     <t>Next</t>
   </si>
   <si>
-    <t>prepare_langauge_and_convert_to_JSON</t>
-  </si>
-  <si>
-    <t>Prepare new langauge and convert to JSON data</t>
-  </si>
-  <si>
-    <t>download_translation_template</t>
-  </si>
-  <si>
     <t>Download translation template - English version</t>
   </si>
   <si>
-    <t>download_amharic_translation_template</t>
-  </si>
-  <si>
     <t>Download amharic translation template - Amharic Version</t>
   </si>
   <si>
@@ -1736,6 +1718,24 @@
   </si>
   <si>
     <t>Invite and Close</t>
+  </si>
+  <si>
+    <t>Show Form</t>
+  </si>
+  <si>
+    <t>Deleting Sector Info</t>
+  </si>
+  <si>
+    <t>prepare_language_and_convert_to_JSON</t>
+  </si>
+  <si>
+    <t>Prepare new language and convert to JSON data</t>
+  </si>
+  <si>
+    <t>download_translation_template_en</t>
+  </si>
+  <si>
+    <t>download_translation_template_am</t>
   </si>
 </sst>
 </file>
@@ -2606,13 +2606,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AD24DA-2E5C-4145-89C1-54CD8DCCDCC1}">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.3671875" customWidth="1"/>
+    <col min="1" max="1" width="48.1015625" customWidth="1"/>
     <col min="2" max="2" width="42.3671875" customWidth="1"/>
     <col min="3" max="3" width="9.05078125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1015625" bestFit="1" customWidth="1"/>
@@ -2876,10 +2876,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2892,10 +2892,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2924,10 +2924,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3567,263 +3567,263 @@
         <v>229</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>230</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>288</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3831,508 +3831,508 @@
         <v>66</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
-        <v>332</v>
+        <v>568</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>333</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
-        <v>334</v>
+        <v>570</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
-        <v>336</v>
+        <v>571</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>132</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>134</v>
@@ -4348,143 +4348,143 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>126</v>
@@ -4492,442 +4492,442 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
